--- a/src/test/java/recources/EarningList.xlsx
+++ b/src/test/java/recources/EarningList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elifkayaatsiz/IdeaProjects/SeleniumNewProject/src/test/java/recources/"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -414,7 +414,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.83203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -433,6 +433,9 @@
       <c r="B2" s="3">
         <v>512</v>
       </c>
+      <c r="C2" t="n" s="0">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -441,6 +444,9 @@
       <c r="B3" s="3">
         <v>205</v>
       </c>
+      <c r="C3" t="n" s="0">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -449,6 +455,9 @@
       <c r="B4" s="3">
         <v>632</v>
       </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -457,6 +466,9 @@
       <c r="B5" s="3">
         <v>344</v>
       </c>
+      <c r="C5" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -465,6 +477,9 @@
       <c r="B6" s="3">
         <v>480</v>
       </c>
+      <c r="C6" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -473,6 +488,9 @@
       <c r="B7" s="3">
         <v>0</v>
       </c>
+      <c r="C7" t="n" s="0">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -480,6 +498,9 @@
       </c>
       <c r="B8" s="3">
         <v>0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
